--- a/Rtune Verification Feature & TC.xlsx
+++ b/Rtune Verification Feature & TC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
   <si>
     <t>Test Case Number</t>
   </si>
@@ -230,8 +230,7 @@
     <t>test_data_PCIE_16Gbps_rtune_rbsscan</t>
   </si>
   <si>
-    <r>
-      <t>define RATE_PCIE_16Gbps_DIRECT
+    <t xml:space="preserve">define RATE_PCIE_16Gbps_DIRECT
 when phy initialization over, scan rbs_rd_data[15:0],
 rbs_rtune_cfg_rd_data[15:0],
 rbs_rtune_debug_rd_data[15:0],
@@ -242,19 +241,8 @@
 rbs_rtune_txdn_stat_rd_data[15:0],
 rbs_rtune_txup_set_val_rd_data[15:0],
 rbs_rtune_txup_stat_rd_data[15:0],
-rbs_sel[8:0],through enable and disable bus.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+rbs_sel[8:0],through enable and disable bus.
  </t>
-    </r>
   </si>
   <si>
     <t>condition:tx_set_done
@@ -418,16 +406,74 @@
     <t>run 10000ns and check rtune_state and the rertune process</t>
   </si>
   <si>
-    <t>rx_set_val_en_r_pulse/txdn_set_val_en_r_pulse/txup_set_val_en_r_pulse的如下状态未能覆盖。</t>
-  </si>
-  <si>
-    <t>未能覆盖的原因是，rx_set_val_en_r_pulse/txdn_set_val_en_r_pulse/txup_set_val_en_r_pulse模块的rbs_wr_data/rbs wr_en外部为短接状态。</t>
+    <t>Rtune_TC_017</t>
+  </si>
+  <si>
+    <t>test_data_PCIE_16Gbps_rtune_rtunecomp</t>
+  </si>
+  <si>
+    <t>define RATE_PCIE_16Gbps_DIRECT
+when phy initialization over,force rtune 
+module rtune_state into compare state and enumerate comp_eval_done signal,after then through enable rtune_req_i signal to check rertune process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">condition:tx_set_done
+configure:
+1)force rtune_state into compare state,comp_eval_done=1,and then enable rtune_req_i run 10000ns;
+2)force rtune_state into compare state,comp_eval_done=0,and then enable rtune_req_i run 10000ns;
+</t>
+  </si>
+  <si>
+    <t>Rtune_TC_018</t>
+  </si>
+  <si>
+    <t>test_data_PCIE_16Gbps_rtune_rbsbus</t>
+  </si>
+  <si>
+    <t>define RATE_PCIE_16Gbps_DIRECT
+when phy initialization over,scan the rbs bus from sel[0] to sel[8] in the rtune module and make rbs_data from high to low and enable and disable rbs_wr_en signal.then check rbsbus scan process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">condition:tx_set_done
+configure:
+scan the rbs bus from sel[0] to sel[8] in the rtune module and make rbs_data from high to low and enable and disable rbs_wr_en signal
+</t>
+  </si>
+  <si>
+    <t>check rbsbus scan process</t>
+  </si>
+  <si>
+    <t>Rtune_TC_019</t>
+  </si>
+  <si>
+    <t>test_data_PCIE_16Gbps_rtune_remnatstable</t>
+  </si>
+  <si>
+    <t>define RATE_PCIE_16Gbps_DIRECT
+when phy initialization over,enumerate 
+rbs_wr_data and rbs_wr_en through enable rtune_req_i signal to check rertune process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">condition:tx_set_done
+configure:
+1)force rbs_sel=1,force rbs_wr_data=1,force rbs_wr_en=0,and then enable rtune_req_i run 10000ns;
+1)force rbs_sel=1,force rbs_wr_data=0,force rbs_wr_en=1,and then enable rtune_req_i run 10000ns;
+</t>
+  </si>
+  <si>
+    <t>check rertune process</t>
+  </si>
+  <si>
+    <t>can not be coverage rx_set_val_en_r_pulse/txdn_set_val_en_r_pulse/txup_set_val_en_r_pulse's state,as below.</t>
+  </si>
+  <si>
+    <t>can not caverage,the module include  rx_set_val_en_r_pulse and txdn_set_val_en_r_pulse and txup_set_val_en_r_pulse's rbs_wr_data and rbs wr_en be connect in the outside,why?</t>
   </si>
   <si>
     <t>line</t>
   </si>
   <si>
-    <t>均已覆盖</t>
+    <t>has been coveraged</t>
   </si>
   <si>
     <t>toggle</t>
@@ -436,7 +482,7 @@
     <t>condition</t>
   </si>
   <si>
-    <t>因代码书写习惯的原因以下逻辑未能覆盖</t>
+    <t>can not be coverage,because the writing stile?</t>
   </si>
   <si>
     <t>branch</t>
@@ -452,14 +498,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,18 +657,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -945,10 +978,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,33 +990,36 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,143 +1029,128 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1923,10 +1944,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1954,327 +1975,387 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="72" customHeight="1" spans="1:6">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="48" customHeight="1" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="57" spans="1:6">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="46" customHeight="1" spans="1:6">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="57" spans="1:6">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="48" customHeight="1" spans="1:6">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="57" spans="1:6">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="47" customHeight="1" spans="1:6">
+      <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="103" customHeight="1" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" ht="101" customHeight="1" spans="1:6">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="117" customHeight="1" spans="1:6">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" ht="104" customHeight="1" spans="1:6">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" ht="409" customHeight="1" spans="1:6">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" ht="128" customHeight="1" spans="1:6">
-      <c r="A12" s="11" t="s">
+    <row r="12" ht="127" customHeight="1" spans="1:6">
+      <c r="A12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" ht="106" customHeight="1" spans="1:6">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" ht="57" spans="1:6">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="370" customHeight="1" spans="1:6">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" ht="147" customHeight="1" spans="1:6">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" ht="142" customHeight="1" spans="1:6">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" ht="128.25" spans="1:6">
+      <c r="A18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" ht="99.75" spans="1:6">
+      <c r="A19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" ht="129" customHeight="1" spans="1:6">
+      <c r="A20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2290,20 +2371,23 @@
   <sheetPr/>
   <dimension ref="A23:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="15" max="15" width="19.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2408,7 @@
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W82" sqref="W82"/>
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -2334,10 +2418,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2345,48 +2429,45 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
         <v>3</v>
       </c>
+      <c r="B46" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C46" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="2:8">
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="2:2">
       <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="73" spans="2:4">
-      <c r="B73" s="1">
-        <v>3</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D73" t="s">
-        <v>83</v>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>4</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C46:H46"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
